--- a/assets/Archivos/Proceso/oee.xlsx
+++ b/assets/Archivos/Proceso/oee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM Proyecto\sneat-1.0.0\assets\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM-Proyecto\assets\Archivos\Proceso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC705E1C-46D9-497F-906B-3B7681F84E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EF584C-17B4-4884-90D9-EA15C739C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
